--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Icam4-Itgal.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Icam4-Itgal.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>2.346040666666667</v>
+        <v>0.3732763333333333</v>
       </c>
       <c r="H2">
-        <v>7.038122</v>
+        <v>1.119829</v>
       </c>
       <c r="I2">
-        <v>0.7615156690656123</v>
+        <v>0.3554258969843855</v>
       </c>
       <c r="J2">
-        <v>0.7615156690656123</v>
+        <v>0.3554258969843855</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -552,28 +552,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>21.087087</v>
+        <v>0.01569233333333333</v>
       </c>
       <c r="N2">
-        <v>63.261261</v>
+        <v>0.047077</v>
       </c>
       <c r="O2">
-        <v>0.9808818221599021</v>
+        <v>0.03693539111407157</v>
       </c>
       <c r="P2">
-        <v>0.9808818221599021</v>
+        <v>0.03693539111407157</v>
       </c>
       <c r="Q2">
-        <v>49.471163643538</v>
+        <v>0.005857576648111111</v>
       </c>
       <c r="R2">
-        <v>445.240472791842</v>
+        <v>0.052718189833</v>
       </c>
       <c r="S2">
-        <v>0.7469568770763948</v>
+        <v>0.01312779451718799</v>
       </c>
       <c r="T2">
-        <v>0.7469568770763948</v>
+        <v>0.01312779451718799</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>2.346040666666667</v>
+        <v>0.3732763333333333</v>
       </c>
       <c r="H3">
-        <v>7.038122</v>
+        <v>1.119829</v>
       </c>
       <c r="I3">
-        <v>0.7615156690656123</v>
+        <v>0.3554258969843855</v>
       </c>
       <c r="J3">
-        <v>0.7615156690656123</v>
+        <v>0.3554258969843855</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,25 +617,25 @@
         <v>0.3230143333333333</v>
       </c>
       <c r="N3">
-        <v>0.969043</v>
+        <v>0.9690430000000001</v>
       </c>
       <c r="O3">
-        <v>0.01502525635066456</v>
+        <v>0.7602859615386125</v>
       </c>
       <c r="P3">
-        <v>0.01502525635066456</v>
+        <v>0.7602859615386125</v>
       </c>
       <c r="Q3">
-        <v>0.7578047619162223</v>
+        <v>0.1205736059607778</v>
       </c>
       <c r="R3">
-        <v>6.820242857246001</v>
+        <v>1.085162453647</v>
       </c>
       <c r="S3">
-        <v>0.01144196814275866</v>
+        <v>0.2702253198444973</v>
       </c>
       <c r="T3">
-        <v>0.01144196814275866</v>
+        <v>0.2702253198444973</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>2.346040666666667</v>
+        <v>0.3732763333333333</v>
       </c>
       <c r="H4">
-        <v>7.038122</v>
+        <v>1.119829</v>
       </c>
       <c r="I4">
-        <v>0.7615156690656123</v>
+        <v>0.3554258969843855</v>
       </c>
       <c r="J4">
-        <v>0.7615156690656123</v>
+        <v>0.3554258969843855</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -676,28 +676,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.08799000000000001</v>
+        <v>0.08615233333333333</v>
       </c>
       <c r="N4">
-        <v>0.26397</v>
+        <v>0.258457</v>
       </c>
       <c r="O4">
-        <v>0.00409292148943331</v>
+        <v>0.202778647347316</v>
       </c>
       <c r="P4">
-        <v>0.00409292148943331</v>
+        <v>0.202778647347316</v>
       </c>
       <c r="Q4">
-        <v>0.20642811826</v>
+        <v>0.03215862709477778</v>
       </c>
       <c r="R4">
-        <v>1.85785306434</v>
+        <v>0.289427643853</v>
       </c>
       <c r="S4">
-        <v>0.00311682384645883</v>
+        <v>0.07207278262270017</v>
       </c>
       <c r="T4">
-        <v>0.00311682384645883</v>
+        <v>0.07207278262270017</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.6683169999999999</v>
+        <v>0.668317</v>
       </c>
       <c r="H5">
         <v>2.004951</v>
       </c>
       <c r="I5">
-        <v>0.2169330969552344</v>
+        <v>0.6363574327729865</v>
       </c>
       <c r="J5">
-        <v>0.2169330969552344</v>
+        <v>0.6363574327729865</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -738,28 +738,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>21.087087</v>
+        <v>0.01569233333333333</v>
       </c>
       <c r="N5">
-        <v>63.261261</v>
+        <v>0.047077</v>
       </c>
       <c r="O5">
-        <v>0.9808818221599021</v>
+        <v>0.03693539111407157</v>
       </c>
       <c r="P5">
-        <v>0.9808818221599021</v>
+        <v>0.03693539111407157</v>
       </c>
       <c r="Q5">
-        <v>14.092858722579</v>
+        <v>0.01048745313633333</v>
       </c>
       <c r="R5">
-        <v>126.835728503211</v>
+        <v>0.09438707822700002</v>
       </c>
       <c r="S5">
-        <v>0.212785731428241</v>
+        <v>0.02350411066781676</v>
       </c>
       <c r="T5">
-        <v>0.212785731428241</v>
+        <v>0.02350411066781676</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.6683169999999999</v>
+        <v>0.668317</v>
       </c>
       <c r="H6">
         <v>2.004951</v>
       </c>
       <c r="I6">
-        <v>0.2169330969552344</v>
+        <v>0.6363574327729865</v>
       </c>
       <c r="J6">
-        <v>0.2169330969552344</v>
+        <v>0.6363574327729865</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,25 +803,25 @@
         <v>0.3230143333333333</v>
       </c>
       <c r="N6">
-        <v>0.969043</v>
+        <v>0.9690430000000001</v>
       </c>
       <c r="O6">
-        <v>0.01502525635066456</v>
+        <v>0.7602859615386125</v>
       </c>
       <c r="P6">
-        <v>0.01502525635066456</v>
+        <v>0.7602859615386125</v>
       </c>
       <c r="Q6">
-        <v>0.2158759702103333</v>
+        <v>0.2158759702103334</v>
       </c>
       <c r="R6">
         <v>1.942883731893</v>
       </c>
       <c r="S6">
-        <v>0.003259475392695966</v>
+        <v>0.483813622658053</v>
       </c>
       <c r="T6">
-        <v>0.003259475392695965</v>
+        <v>0.483813622658053</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.6683169999999999</v>
+        <v>0.668317</v>
       </c>
       <c r="H7">
         <v>2.004951</v>
       </c>
       <c r="I7">
-        <v>0.2169330969552344</v>
+        <v>0.6363574327729865</v>
       </c>
       <c r="J7">
-        <v>0.2169330969552344</v>
+        <v>0.6363574327729865</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -862,28 +862,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.08799000000000001</v>
+        <v>0.08615233333333333</v>
       </c>
       <c r="N7">
-        <v>0.26397</v>
+        <v>0.258457</v>
       </c>
       <c r="O7">
-        <v>0.00409292148943331</v>
+        <v>0.202778647347316</v>
       </c>
       <c r="P7">
-        <v>0.00409292148943331</v>
+        <v>0.202778647347316</v>
       </c>
       <c r="Q7">
-        <v>0.05880521283</v>
+        <v>0.05757706895633333</v>
       </c>
       <c r="R7">
-        <v>0.52924691547</v>
+        <v>0.518193620607</v>
       </c>
       <c r="S7">
-        <v>0.0008878901342973987</v>
+        <v>0.1290396994471168</v>
       </c>
       <c r="T7">
-        <v>0.0008878901342973986</v>
+        <v>0.1290396994471168</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,22 +900,22 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.06639399999999999</v>
+        <v>0.008629333333333334</v>
       </c>
       <c r="H8">
-        <v>0.199182</v>
+        <v>0.025888</v>
       </c>
       <c r="I8">
-        <v>0.02155123397915336</v>
+        <v>0.008216670242627913</v>
       </c>
       <c r="J8">
-        <v>0.02155123397915336</v>
+        <v>0.008216670242627911</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -924,28 +924,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>21.087087</v>
+        <v>0.01569233333333333</v>
       </c>
       <c r="N8">
-        <v>63.261261</v>
+        <v>0.047077</v>
       </c>
       <c r="O8">
-        <v>0.9808818221599021</v>
+        <v>0.03693539111407157</v>
       </c>
       <c r="P8">
-        <v>0.9808818221599021</v>
+        <v>0.03693539111407157</v>
       </c>
       <c r="Q8">
-        <v>1.400056054278</v>
+        <v>0.0001354143751111111</v>
       </c>
       <c r="R8">
-        <v>12.600504488502</v>
+        <v>0.001218729376</v>
       </c>
       <c r="S8">
-        <v>0.02113921365526634</v>
+        <v>0.0003034859290668153</v>
       </c>
       <c r="T8">
-        <v>0.02113921365526634</v>
+        <v>0.0003034859290668152</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,22 +962,22 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.06639399999999999</v>
+        <v>0.008629333333333334</v>
       </c>
       <c r="H9">
-        <v>0.199182</v>
+        <v>0.025888</v>
       </c>
       <c r="I9">
-        <v>0.02155123397915336</v>
+        <v>0.008216670242627913</v>
       </c>
       <c r="J9">
-        <v>0.02155123397915336</v>
+        <v>0.008216670242627911</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,25 +989,25 @@
         <v>0.3230143333333333</v>
       </c>
       <c r="N9">
-        <v>0.969043</v>
+        <v>0.9690430000000001</v>
       </c>
       <c r="O9">
-        <v>0.01502525635066456</v>
+        <v>0.7602859615386125</v>
       </c>
       <c r="P9">
-        <v>0.01502525635066456</v>
+        <v>0.7602859615386125</v>
       </c>
       <c r="Q9">
-        <v>0.02144621364733333</v>
+        <v>0.002787398353777778</v>
       </c>
       <c r="R9">
-        <v>0.193015922826</v>
+        <v>0.025086585184</v>
       </c>
       <c r="S9">
-        <v>0.0003238128152099318</v>
+        <v>0.006247019036062068</v>
       </c>
       <c r="T9">
-        <v>0.0003238128152099317</v>
+        <v>0.006247019036062066</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,22 +1024,22 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.06639399999999999</v>
+        <v>0.008629333333333334</v>
       </c>
       <c r="H10">
-        <v>0.199182</v>
+        <v>0.025888</v>
       </c>
       <c r="I10">
-        <v>0.02155123397915336</v>
+        <v>0.008216670242627913</v>
       </c>
       <c r="J10">
-        <v>0.02155123397915336</v>
+        <v>0.008216670242627911</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1048,28 +1048,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.08799000000000001</v>
+        <v>0.08615233333333333</v>
       </c>
       <c r="N10">
-        <v>0.26397</v>
+        <v>0.258457</v>
       </c>
       <c r="O10">
-        <v>0.00409292148943331</v>
+        <v>0.202778647347316</v>
       </c>
       <c r="P10">
-        <v>0.00409292148943331</v>
+        <v>0.202778647347316</v>
       </c>
       <c r="Q10">
-        <v>0.005842008060000001</v>
+        <v>0.0007434372017777779</v>
       </c>
       <c r="R10">
-        <v>0.05257807254000001</v>
+        <v>0.006690934816</v>
       </c>
       <c r="S10">
-        <v>8.820750867708211E-05</v>
+        <v>0.001666165277499031</v>
       </c>
       <c r="T10">
-        <v>8.820750867708211E-05</v>
+        <v>0.001666165277499031</v>
       </c>
     </row>
   </sheetData>
